--- a/7/2/2/1/2/Empresas no financieras 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/Empresas no financieras 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG75"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8177,49 +8180,49 @@
         <v>106</v>
       </c>
       <c r="B75">
-        <v>367849</v>
+        <v>370243</v>
       </c>
       <c r="C75">
-        <v>51486</v>
+        <v>50969</v>
       </c>
       <c r="D75">
-        <v>27675</v>
+        <v>27477</v>
       </c>
       <c r="E75">
-        <v>23812</v>
+        <v>23492</v>
       </c>
       <c r="F75">
-        <v>8943</v>
+        <v>8979</v>
       </c>
       <c r="G75">
         <v>854</v>
       </c>
       <c r="H75">
-        <v>8088</v>
+        <v>8124</v>
       </c>
       <c r="I75">
-        <v>1248</v>
+        <v>1142</v>
       </c>
       <c r="J75">
-        <v>12001</v>
+        <v>11819</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>12001</v>
+        <v>11819</v>
       </c>
       <c r="M75">
-        <v>183874</v>
+        <v>185931</v>
       </c>
       <c r="N75">
-        <v>162201</v>
+        <v>164226</v>
       </c>
       <c r="O75">
-        <v>9552</v>
+        <v>9589</v>
       </c>
       <c r="P75">
-        <v>12121</v>
+        <v>12116</v>
       </c>
       <c r="Q75">
         <v>690</v>
@@ -8228,49 +8231,150 @@
         <v>690</v>
       </c>
       <c r="S75">
-        <v>109608</v>
+        <v>110714</v>
       </c>
       <c r="T75">
-        <v>-283149</v>
+        <v>-284141</v>
       </c>
       <c r="U75">
-        <v>650998</v>
+        <v>654385</v>
       </c>
       <c r="V75">
-        <v>71412</v>
+        <v>70514</v>
       </c>
       <c r="W75">
         <v>2</v>
       </c>
       <c r="X75">
-        <v>71409</v>
+        <v>70512</v>
       </c>
       <c r="Y75">
-        <v>165837</v>
+        <v>165235</v>
       </c>
       <c r="Z75">
-        <v>5961</v>
+        <v>5909</v>
       </c>
       <c r="AA75">
-        <v>159876</v>
+        <v>159326</v>
       </c>
       <c r="AB75">
-        <v>302035</v>
+        <v>305887</v>
       </c>
       <c r="AC75">
         <v>108589</v>
       </c>
       <c r="AD75">
-        <v>193447</v>
+        <v>197299</v>
       </c>
       <c r="AE75">
-        <v>111714</v>
+        <v>112748</v>
       </c>
       <c r="AF75">
-        <v>6467</v>
+        <v>6473</v>
       </c>
       <c r="AG75">
-        <v>4230</v>
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <v>372763</v>
+      </c>
+      <c r="C76">
+        <v>51306</v>
+      </c>
+      <c r="D76">
+        <v>29778</v>
+      </c>
+      <c r="E76">
+        <v>21528</v>
+      </c>
+      <c r="F76">
+        <v>9855</v>
+      </c>
+      <c r="G76">
+        <v>2092</v>
+      </c>
+      <c r="H76">
+        <v>7763</v>
+      </c>
+      <c r="I76">
+        <v>1130</v>
+      </c>
+      <c r="J76">
+        <v>11928</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>11928</v>
+      </c>
+      <c r="M76">
+        <v>187813</v>
+      </c>
+      <c r="N76">
+        <v>167005</v>
+      </c>
+      <c r="O76">
+        <v>9064</v>
+      </c>
+      <c r="P76">
+        <v>11745</v>
+      </c>
+      <c r="Q76">
+        <v>679</v>
+      </c>
+      <c r="R76">
+        <v>679</v>
+      </c>
+      <c r="S76">
+        <v>110053</v>
+      </c>
+      <c r="T76">
+        <v>-277794</v>
+      </c>
+      <c r="U76">
+        <v>650557</v>
+      </c>
+      <c r="V76">
+        <v>69533</v>
+      </c>
+      <c r="W76">
+        <v>3</v>
+      </c>
+      <c r="X76">
+        <v>69530</v>
+      </c>
+      <c r="Y76">
+        <v>165558</v>
+      </c>
+      <c r="Z76">
+        <v>5940</v>
+      </c>
+      <c r="AA76">
+        <v>159619</v>
+      </c>
+      <c r="AB76">
+        <v>302534</v>
+      </c>
+      <c r="AC76">
+        <v>102526</v>
+      </c>
+      <c r="AD76">
+        <v>200008</v>
+      </c>
+      <c r="AE76">
+        <v>112932</v>
+      </c>
+      <c r="AF76">
+        <v>6884</v>
+      </c>
+      <c r="AG76">
+        <v>4299</v>
       </c>
     </row>
   </sheetData>
